--- a/Project-cheon/resData/items.xlsx
+++ b/Project-cheon/resData/items.xlsx
@@ -5,7 +5,7 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\02WorkSpace\10Flask\03MyFlask\resData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\02WorkSpace\Project3\TeamProject1\Project-cheon\resData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
@@ -19,102 +19,432 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="142">
+  <x:si>
+    <x:t>224</x:t>
+  </x:si>
+  <x:si>
+    <x:t>217</x:t>
+  </x:si>
+  <x:si>
+    <x:t>호박</x:t>
+  </x:si>
+  <x:si>
+    <x:t>223</x:t>
+  </x:si>
+  <x:si>
+    <x:t>토마토</x:t>
+  </x:si>
+  <x:si>
+    <x:t>갓</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우엉</x:t>
+  </x:si>
+  <x:si>
+    <x:t>221</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무</x:t>
+  </x:si>
+  <x:si>
+    <x:t>233</x:t>
+  </x:si>
+  <x:si>
+    <x:t>열무</x:t>
+  </x:si>
+  <x:si>
+    <x:t>241</x:t>
+  </x:si>
+  <x:si>
+    <x:t>216</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상추</x:t>
+  </x:si>
+  <x:si>
+    <x:t>215</x:t>
+  </x:si>
+  <x:si>
+    <x:t>218</x:t>
+  </x:si>
+  <x:si>
+    <x:t>226</x:t>
+  </x:si>
+  <x:si>
+    <x:t>딸기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>225</x:t>
+  </x:si>
+  <x:si>
+    <x:t>232</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시금치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연근</x:t>
+  </x:si>
+  <x:si>
+    <x:t>231</x:t>
+  </x:si>
+  <x:si>
+    <x:t>222</x:t>
+  </x:si>
+  <x:si>
+    <x:t>참외</x:t>
+  </x:si>
+  <x:si>
+    <x:t>당근</x:t>
+  </x:si>
+  <x:si>
+    <x:t>214</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수박</x:t>
+  </x:si>
+  <x:si>
+    <x:t>255</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생강</x:t>
+  </x:si>
+  <x:si>
+    <x:t>피마늘</x:t>
+  </x:si>
+  <x:si>
+    <x:t>파</x:t>
+  </x:si>
+  <x:si>
+    <x:t>251</x:t>
+  </x:si>
+  <x:si>
+    <x:t>248</x:t>
+  </x:si>
+  <x:si>
+    <x:t>243</x:t>
+  </x:si>
+  <x:si>
+    <x:t>246</x:t>
+  </x:si>
+  <x:si>
+    <x:t>244</x:t>
+  </x:si>
+  <x:si>
+    <x:t>피망</x:t>
+  </x:si>
+  <x:si>
+    <x:t>256</x:t>
+  </x:si>
+  <x:si>
+    <x:t>257</x:t>
+  </x:si>
+  <x:si>
+    <x:t>261</x:t>
+  </x:si>
+  <x:si>
+    <x:t>멜론</x:t>
+  </x:si>
+  <x:si>
+    <x:t>258</x:t>
+  </x:si>
+  <x:si>
+    <x:t>259</x:t>
+  </x:si>
+  <x:si>
+    <x:t>양파</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>깻잎</x:t>
+  </x:si>
+  <x:si>
+    <x:t>254</x:t>
+  </x:si>
+  <x:si>
+    <x:t>262</x:t>
+  </x:si>
+  <x:si>
+    <x:t>247</x:t>
+  </x:si>
+  <x:si>
+    <x:t>풋고추</x:t>
+  </x:si>
+  <x:si>
+    <x:t>253</x:t>
+  </x:si>
+  <x:si>
+    <x:t>양상추</x:t>
+  </x:si>
+  <x:si>
+    <x:t>263</x:t>
+  </x:si>
+  <x:si>
+    <x:t>252</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미나리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부추</x:t>
+  </x:si>
+  <x:si>
+    <x:t>건고추</x:t>
+  </x:si>
+  <x:si>
+    <x:t>242</x:t>
+  </x:si>
+  <x:si>
+    <x:t>245</x:t>
+  </x:si>
+  <x:si>
+    <x:t>달래</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쪽파</x:t>
+  </x:si>
+  <x:si>
+    <x:t>277</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다발무</x:t>
+  </x:si>
+  <x:si>
+    <x:t>콩나물</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대파</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고사리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>270</x:t>
+  </x:si>
+  <x:si>
+    <x:t>272</x:t>
+  </x:si>
+  <x:si>
+    <x:t>265</x:t>
+  </x:si>
+  <x:si>
+    <x:t>취나물</x:t>
+  </x:si>
+  <x:si>
+    <x:t>275</x:t>
+  </x:si>
+  <x:si>
+    <x:t>266</x:t>
+  </x:si>
+  <x:si>
+    <x:t>422</x:t>
+  </x:si>
+  <x:si>
+    <x:t>267</x:t>
+  </x:si>
+  <x:si>
+    <x:t>279</x:t>
+  </x:si>
+  <x:si>
+    <x:t>274</x:t>
+  </x:si>
+  <x:si>
+    <x:t>269</x:t>
+  </x:si>
+  <x:si>
+    <x:t>264</x:t>
+  </x:si>
+  <x:si>
+    <x:t>276</x:t>
+  </x:si>
+  <x:si>
+    <x:t>278</x:t>
+  </x:si>
+  <x:si>
+    <x:t>케일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>청경채</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쑥</x:t>
+  </x:si>
+  <x:si>
+    <x:t>273</x:t>
+  </x:si>
+  <x:si>
+    <x:t>268</x:t>
+  </x:si>
+  <x:si>
+    <x:t>280</x:t>
+  </x:si>
+  <x:si>
+    <x:t>두릅</x:t>
+  </x:si>
+  <x:si>
+    <x:t>271</x:t>
+  </x:si>
+  <x:si>
+    <x:t>콩</x:t>
+  </x:si>
+  <x:si>
+    <x:t>팥</x:t>
+  </x:si>
+  <x:si>
+    <x:t>143</x:t>
+  </x:si>
+  <x:si>
+    <x:t>찹쌀</x:t>
+  </x:si>
+  <x:si>
+    <x:t>품목명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>혼합곡</x:t>
+  </x:si>
+  <x:si>
+    <x:t>113</x:t>
+  </x:si>
+  <x:si>
+    <x:t>112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>141</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쌀</x:t>
+  </x:si>
+  <x:si>
+    <x:t>114</x:t>
+  </x:si>
+  <x:si>
+    <x:t>100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>142</x:t>
+  </x:si>
+  <x:si>
+    <x:t>111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>161</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고구마</x:t>
+  </x:si>
+  <x:si>
+    <x:t>163</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메밀</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>율무</x:t>
+  </x:si>
+  <x:si>
+    <x:t>200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>211</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배추</x:t>
+  </x:si>
+  <x:si>
+    <x:t>212</x:t>
+  </x:si>
+  <x:si>
+    <x:t>귀리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>양배추</x:t>
+  </x:si>
+  <x:si>
+    <x:t>213</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹두</x:t>
+  </x:si>
+  <x:si>
+    <x:t>144</x:t>
+  </x:si>
+  <x:si>
+    <x:t>151</x:t>
+  </x:si>
+  <x:si>
+    <x:t>152</x:t>
+  </x:si>
+  <x:si>
+    <x:t>164</x:t>
+  </x:si>
+  <x:si>
+    <x:t>감자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>162</x:t>
+  </x:si>
+  <x:si>
+    <x:t>붉은고추</x:t>
+  </x:si>
+  <x:si>
+    <x:t>겨울 배추</x:t>
+  </x:si>
+  <x:si>
+    <x:t>얼갈이배추</x:t>
+  </x:si>
+  <x:si>
+    <x:t>깐마늘(국산)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>브로콜리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>청양고추</x:t>
+  </x:si>
   <x:si>
     <x:t>품목코드</x:t>
   </x:si>
   <x:si>
+    <x:t>깐마늘(수입)</x:t>
+  </x:si>
+  <x:si>
     <x:t>부류코드</x:t>
   </x:si>
   <x:si>
-    <x:t>귀리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>찹쌀</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>161</x:t>
-  </x:si>
-  <x:si>
-    <x:t>율무</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메밀</x:t>
-  </x:si>
-  <x:si>
-    <x:t>162</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>144</x:t>
-  </x:si>
-  <x:si>
-    <x:t>152</x:t>
-  </x:si>
-  <x:si>
-    <x:t>감자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>혼합곡</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쌀</x:t>
-  </x:si>
-  <x:si>
-    <x:t>113</x:t>
-  </x:si>
-  <x:si>
-    <x:t>143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>팥</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고구마</x:t>
-  </x:si>
-  <x:si>
-    <x:t>품목명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>142</x:t>
-  </x:si>
-  <x:si>
-    <x:t>콩</x:t>
-  </x:si>
-  <x:si>
-    <x:t>112</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹두</x:t>
-  </x:si>
-  <x:si>
-    <x:t>111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>151</x:t>
-  </x:si>
-  <x:si>
-    <x:t>114</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>164</x:t>
-  </x:si>
-  <x:si>
-    <x:t>100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>163</x:t>
-  </x:si>
-  <x:si>
-    <x:t>141</x:t>
+    <x:t>절임배추</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쥬키니호박</x:t>
+  </x:si>
+  <x:si>
+    <x:t>파프리카</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알배기배추</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고춧가루</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로메인 상추</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방울토마토</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -878,451 +1208,781 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:C131"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="F28" activeCellId="0" sqref="F28:F28"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="F6" activeCellId="0" sqref="F6:F6"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
       <x:c r="A11" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
       <x:c r="A12" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
       <x:c r="A13" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
       <x:c r="A14" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
       <x:c r="A15" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:3">
+      <x:c r="A16" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
+        <x:v>114</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:3">
+      <x:c r="A17" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:3">
+      <x:c r="A18" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B18" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:3">
+      <x:c r="A19" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B19" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:3">
+      <x:c r="A20" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
+        <x:v>128</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:3">
+      <x:c r="A21" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:3">
+      <x:c r="A22" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:3">
+      <x:c r="A23" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:3">
+      <x:c r="A24" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:3">
+      <x:c r="A25" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:3">
+      <x:c r="A26" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:3">
+      <x:c r="A27" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:3">
+      <x:c r="A28" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:3">
+      <x:c r="A29" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:3">
+      <x:c r="A30" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:3">
+      <x:c r="A31" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:3">
+      <x:c r="A32" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:3">
+      <x:c r="A33" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B33" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:3">
+      <x:c r="A34" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:3">
+      <x:c r="A35" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>126</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:3">
+      <x:c r="A36" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:3">
+      <x:c r="A37" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B37" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:3">
+      <x:c r="A38" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B38" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:3">
+      <x:c r="A39" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B39" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C39" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:3">
+      <x:c r="A40" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B40" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C40" s="2" t="s">
+        <x:v>139</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:3">
+      <x:c r="A41" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B41" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C41" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:3">
+      <x:c r="A42" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B42" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C42" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:3">
+      <x:c r="A43" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B43" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C43" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:3">
+      <x:c r="A44" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B44" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C44" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:3">
+      <x:c r="A45" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B45" s="2" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="B15" s="2" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="C15" s="2" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:3">
-      <x:c r="A16" s="2"/>
-      <x:c r="B16" s="2"/>
-      <x:c r="C16" s="2"/>
-    </x:row>
-    <x:row r="17" spans="1:3">
-      <x:c r="A17" s="2"/>
-      <x:c r="B17" s="2"/>
-      <x:c r="C17" s="2"/>
-    </x:row>
-    <x:row r="18" spans="1:3">
-      <x:c r="A18" s="2"/>
-      <x:c r="B18" s="2"/>
-      <x:c r="C18" s="2"/>
-    </x:row>
-    <x:row r="19" spans="1:3">
-      <x:c r="A19" s="2"/>
-      <x:c r="B19" s="2"/>
-      <x:c r="C19" s="2"/>
-    </x:row>
-    <x:row r="20" spans="1:3">
-      <x:c r="A20" s="2"/>
-      <x:c r="B20" s="2"/>
-      <x:c r="C20" s="2"/>
-    </x:row>
-    <x:row r="21" spans="1:3">
-      <x:c r="A21" s="2"/>
-      <x:c r="B21" s="2"/>
-      <x:c r="C21" s="2"/>
-    </x:row>
-    <x:row r="22" spans="1:3">
-      <x:c r="A22" s="2"/>
-      <x:c r="B22" s="2"/>
-      <x:c r="C22" s="2"/>
-    </x:row>
-    <x:row r="23" spans="1:3">
-      <x:c r="A23" s="2"/>
-      <x:c r="B23" s="2"/>
-      <x:c r="C23" s="2"/>
-    </x:row>
-    <x:row r="24" spans="1:3">
-      <x:c r="A24" s="2"/>
-      <x:c r="B24" s="2"/>
-      <x:c r="C24" s="2"/>
-    </x:row>
-    <x:row r="25" spans="1:3">
-      <x:c r="A25" s="2"/>
-      <x:c r="B25" s="2"/>
-      <x:c r="C25" s="2"/>
-    </x:row>
-    <x:row r="26" spans="1:3">
-      <x:c r="A26" s="2"/>
-      <x:c r="B26" s="2"/>
-      <x:c r="C26" s="2"/>
-    </x:row>
-    <x:row r="27" spans="1:3">
-      <x:c r="A27" s="2"/>
-      <x:c r="B27" s="2"/>
-      <x:c r="C27" s="2"/>
-    </x:row>
-    <x:row r="28" spans="1:3">
-      <x:c r="A28" s="2"/>
-      <x:c r="B28" s="2"/>
-      <x:c r="C28" s="2"/>
-    </x:row>
-    <x:row r="29" spans="1:3">
-      <x:c r="A29" s="2"/>
-      <x:c r="B29" s="2"/>
-      <x:c r="C29" s="2"/>
-    </x:row>
-    <x:row r="30" spans="1:3">
-      <x:c r="A30" s="2"/>
-      <x:c r="B30" s="2"/>
-      <x:c r="C30" s="2"/>
-    </x:row>
-    <x:row r="31" spans="1:3">
-      <x:c r="A31" s="2"/>
-      <x:c r="B31" s="2"/>
-      <x:c r="C31" s="2"/>
-    </x:row>
-    <x:row r="32" spans="1:3">
-      <x:c r="A32" s="2"/>
-      <x:c r="B32" s="2"/>
-      <x:c r="C32" s="2"/>
-    </x:row>
-    <x:row r="33" spans="1:3">
-      <x:c r="A33" s="2"/>
-      <x:c r="B33" s="2"/>
-      <x:c r="C33" s="2"/>
-    </x:row>
-    <x:row r="34" spans="1:3">
-      <x:c r="A34" s="2"/>
-      <x:c r="B34" s="2"/>
-      <x:c r="C34" s="2"/>
-    </x:row>
-    <x:row r="35" spans="1:3">
-      <x:c r="A35" s="2"/>
-      <x:c r="B35" s="2"/>
-      <x:c r="C35" s="2"/>
-    </x:row>
-    <x:row r="36" spans="1:3">
-      <x:c r="A36" s="2"/>
-      <x:c r="B36" s="2"/>
-      <x:c r="C36" s="2"/>
-    </x:row>
-    <x:row r="37" spans="1:3">
-      <x:c r="A37" s="2"/>
-      <x:c r="B37" s="2"/>
-      <x:c r="C37" s="2"/>
-    </x:row>
-    <x:row r="38" spans="1:3">
-      <x:c r="A38" s="2"/>
-      <x:c r="B38" s="2"/>
-      <x:c r="C38" s="2"/>
-    </x:row>
-    <x:row r="39" spans="1:3">
-      <x:c r="A39" s="2"/>
-      <x:c r="B39" s="2"/>
-      <x:c r="C39" s="2"/>
-    </x:row>
-    <x:row r="40" spans="1:3">
-      <x:c r="A40" s="2"/>
-      <x:c r="B40" s="2"/>
-      <x:c r="C40" s="2"/>
-    </x:row>
-    <x:row r="41" spans="1:3">
-      <x:c r="A41" s="2"/>
-      <x:c r="B41" s="2"/>
-      <x:c r="C41" s="2"/>
-    </x:row>
-    <x:row r="42" spans="1:3">
-      <x:c r="A42" s="2"/>
-      <x:c r="B42" s="2"/>
-      <x:c r="C42" s="2"/>
-    </x:row>
-    <x:row r="43" spans="1:3">
-      <x:c r="A43" s="2"/>
-      <x:c r="B43" s="2"/>
-      <x:c r="C43" s="2"/>
-    </x:row>
-    <x:row r="44" spans="1:3">
-      <x:c r="A44" s="2"/>
-      <x:c r="B44" s="2"/>
-      <x:c r="C44" s="2"/>
-    </x:row>
-    <x:row r="45" spans="1:3">
-      <x:c r="A45" s="2"/>
-      <x:c r="B45" s="2"/>
-      <x:c r="C45" s="2"/>
+      <x:c r="C45" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
     </x:row>
     <x:row r="46" spans="1:3">
-      <x:c r="A46" s="2"/>
-      <x:c r="B46" s="2"/>
-      <x:c r="C46" s="2"/>
+      <x:c r="A46" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B46" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C46" s="2" t="s">
+        <x:v>137</x:v>
+      </x:c>
     </x:row>
     <x:row r="47" spans="1:3">
-      <x:c r="A47" s="2"/>
-      <x:c r="B47" s="2"/>
-      <x:c r="C47" s="2"/>
+      <x:c r="A47" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B47" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C47" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
     </x:row>
     <x:row r="48" spans="1:3">
-      <x:c r="A48" s="2"/>
-      <x:c r="B48" s="2"/>
-      <x:c r="C48" s="2"/>
+      <x:c r="A48" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B48" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C48" s="2" t="s">
+        <x:v>129</x:v>
+      </x:c>
     </x:row>
     <x:row r="49" spans="1:3">
-      <x:c r="A49" s="2"/>
-      <x:c r="B49" s="2"/>
-      <x:c r="C49" s="2"/>
+      <x:c r="A49" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B49" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C49" s="2" t="s">
+        <x:v>133</x:v>
+      </x:c>
     </x:row>
     <x:row r="50" spans="1:3">
-      <x:c r="A50" s="2"/>
-      <x:c r="B50" s="2"/>
-      <x:c r="C50" s="2"/>
+      <x:c r="A50" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B50" s="2" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C50" s="2" t="s">
+        <x:v>130</x:v>
+      </x:c>
     </x:row>
     <x:row r="51" spans="1:3">
-      <x:c r="A51" s="2"/>
-      <x:c r="B51" s="2"/>
-      <x:c r="C51" s="2"/>
+      <x:c r="A51" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B51" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C51" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
     </x:row>
     <x:row r="52" spans="1:3">
-      <x:c r="A52" s="2"/>
-      <x:c r="B52" s="2"/>
-      <x:c r="C52" s="2"/>
+      <x:c r="A52" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B52" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C52" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
     </x:row>
     <x:row r="53" spans="1:3">
-      <x:c r="A53" s="2"/>
-      <x:c r="B53" s="2"/>
-      <x:c r="C53" s="2"/>
+      <x:c r="A53" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B53" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C53" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
     </x:row>
     <x:row r="54" spans="1:3">
-      <x:c r="A54" s="2"/>
-      <x:c r="B54" s="2"/>
-      <x:c r="C54" s="2"/>
+      <x:c r="A54" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B54" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C54" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
     </x:row>
     <x:row r="55" spans="1:3">
-      <x:c r="A55" s="2"/>
-      <x:c r="B55" s="2"/>
-      <x:c r="C55" s="2"/>
+      <x:c r="A55" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B55" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C55" s="2" t="s">
+        <x:v>135</x:v>
+      </x:c>
     </x:row>
     <x:row r="56" spans="1:3">
-      <x:c r="A56" s="2"/>
-      <x:c r="B56" s="2"/>
-      <x:c r="C56" s="2"/>
+      <x:c r="A56" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B56" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C56" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
     </x:row>
     <x:row r="57" spans="1:3">
-      <x:c r="A57" s="2"/>
-      <x:c r="B57" s="2"/>
-      <x:c r="C57" s="2"/>
+      <x:c r="A57" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B57" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C57" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
     </x:row>
     <x:row r="58" spans="1:3">
-      <x:c r="A58" s="2"/>
-      <x:c r="B58" s="2"/>
-      <x:c r="C58" s="2"/>
+      <x:c r="A58" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B58" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="C58" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
     </x:row>
     <x:row r="59" spans="1:3">
-      <x:c r="A59" s="2"/>
-      <x:c r="B59" s="2"/>
-      <x:c r="C59" s="2"/>
+      <x:c r="A59" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B59" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C59" s="2" t="s">
+        <x:v>140</x:v>
+      </x:c>
     </x:row>
     <x:row r="60" spans="1:3">
-      <x:c r="A60" s="2"/>
-      <x:c r="B60" s="2"/>
-      <x:c r="C60" s="2"/>
+      <x:c r="A60" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B60" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C60" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
     </x:row>
     <x:row r="61" spans="1:3">
-      <x:c r="A61" s="2"/>
-      <x:c r="B61" s="2"/>
-      <x:c r="C61" s="2"/>
+      <x:c r="A61" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B61" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C61" s="2" t="s">
+        <x:v>136</x:v>
+      </x:c>
     </x:row>
     <x:row r="62" spans="1:3">
-      <x:c r="A62" s="2"/>
-      <x:c r="B62" s="2"/>
-      <x:c r="C62" s="2"/>
+      <x:c r="A62" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B62" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C62" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
     </x:row>
     <x:row r="63" spans="1:3">
-      <x:c r="A63" s="2"/>
-      <x:c r="B63" s="2"/>
-      <x:c r="C63" s="2"/>
+      <x:c r="A63" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B63" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C63" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
     </x:row>
     <x:row r="64" spans="1:3">
-      <x:c r="A64" s="2"/>
-      <x:c r="B64" s="2"/>
-      <x:c r="C64" s="2"/>
+      <x:c r="A64" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B64" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C64" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
     </x:row>
     <x:row r="65" spans="1:3">
-      <x:c r="A65" s="2"/>
-      <x:c r="B65" s="2"/>
-      <x:c r="C65" s="2"/>
+      <x:c r="A65" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B65" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C65" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
     </x:row>
     <x:row r="66" spans="1:3">
-      <x:c r="A66" s="2"/>
-      <x:c r="B66" s="2"/>
-      <x:c r="C66" s="2"/>
+      <x:c r="A66" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B66" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C66" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
     </x:row>
     <x:row r="67" spans="1:3">
-      <x:c r="A67" s="2"/>
-      <x:c r="B67" s="2"/>
-      <x:c r="C67" s="2"/>
+      <x:c r="A67" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B67" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="C67" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
     </x:row>
     <x:row r="68" spans="1:3">
-      <x:c r="A68" s="2"/>
-      <x:c r="B68" s="2"/>
-      <x:c r="C68" s="2"/>
+      <x:c r="A68" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B68" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="C68" s="2" t="s">
+        <x:v>138</x:v>
+      </x:c>
     </x:row>
     <x:row r="69" spans="1:3">
-      <x:c r="A69" s="2"/>
-      <x:c r="B69" s="2"/>
-      <x:c r="C69" s="2"/>
+      <x:c r="A69" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B69" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C69" s="2" t="s">
+        <x:v>130</x:v>
+      </x:c>
     </x:row>
     <x:row r="70" spans="1:3">
-      <x:c r="A70" s="2"/>
-      <x:c r="B70" s="2"/>
-      <x:c r="C70" s="2"/>
+      <x:c r="A70" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B70" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C70" s="2" t="s">
+        <x:v>141</x:v>
+      </x:c>
     </x:row>
     <x:row r="71" spans="1:3">
       <x:c r="A71" s="2"/>

--- a/Project-cheon/resData/items.xlsx
+++ b/Project-cheon/resData/items.xlsx
@@ -19,277 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="142">
-  <x:si>
-    <x:t>224</x:t>
-  </x:si>
-  <x:si>
-    <x:t>217</x:t>
-  </x:si>
-  <x:si>
-    <x:t>호박</x:t>
-  </x:si>
-  <x:si>
-    <x:t>223</x:t>
-  </x:si>
-  <x:si>
-    <x:t>토마토</x:t>
-  </x:si>
-  <x:si>
-    <x:t>갓</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우엉</x:t>
-  </x:si>
-  <x:si>
-    <x:t>221</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무</x:t>
-  </x:si>
-  <x:si>
-    <x:t>233</x:t>
-  </x:si>
-  <x:si>
-    <x:t>열무</x:t>
-  </x:si>
-  <x:si>
-    <x:t>241</x:t>
-  </x:si>
-  <x:si>
-    <x:t>216</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상추</x:t>
-  </x:si>
-  <x:si>
-    <x:t>215</x:t>
-  </x:si>
-  <x:si>
-    <x:t>218</x:t>
-  </x:si>
-  <x:si>
-    <x:t>226</x:t>
-  </x:si>
-  <x:si>
-    <x:t>딸기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>225</x:t>
-  </x:si>
-  <x:si>
-    <x:t>232</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시금치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연근</x:t>
-  </x:si>
-  <x:si>
-    <x:t>231</x:t>
-  </x:si>
-  <x:si>
-    <x:t>222</x:t>
-  </x:si>
-  <x:si>
-    <x:t>참외</x:t>
-  </x:si>
-  <x:si>
-    <x:t>당근</x:t>
-  </x:si>
-  <x:si>
-    <x:t>214</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수박</x:t>
-  </x:si>
-  <x:si>
-    <x:t>255</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생강</x:t>
-  </x:si>
-  <x:si>
-    <x:t>피마늘</x:t>
-  </x:si>
-  <x:si>
-    <x:t>파</x:t>
-  </x:si>
-  <x:si>
-    <x:t>251</x:t>
-  </x:si>
-  <x:si>
-    <x:t>248</x:t>
-  </x:si>
-  <x:si>
-    <x:t>243</x:t>
-  </x:si>
-  <x:si>
-    <x:t>246</x:t>
-  </x:si>
-  <x:si>
-    <x:t>244</x:t>
-  </x:si>
-  <x:si>
-    <x:t>피망</x:t>
-  </x:si>
-  <x:si>
-    <x:t>256</x:t>
-  </x:si>
-  <x:si>
-    <x:t>257</x:t>
-  </x:si>
-  <x:si>
-    <x:t>261</x:t>
-  </x:si>
-  <x:si>
-    <x:t>멜론</x:t>
-  </x:si>
-  <x:si>
-    <x:t>258</x:t>
-  </x:si>
-  <x:si>
-    <x:t>259</x:t>
-  </x:si>
-  <x:si>
-    <x:t>양파</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>깻잎</x:t>
-  </x:si>
-  <x:si>
-    <x:t>254</x:t>
-  </x:si>
-  <x:si>
-    <x:t>262</x:t>
-  </x:si>
-  <x:si>
-    <x:t>247</x:t>
-  </x:si>
-  <x:si>
-    <x:t>풋고추</x:t>
-  </x:si>
-  <x:si>
-    <x:t>253</x:t>
-  </x:si>
-  <x:si>
-    <x:t>양상추</x:t>
-  </x:si>
-  <x:si>
-    <x:t>263</x:t>
-  </x:si>
-  <x:si>
-    <x:t>252</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미나리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부추</x:t>
-  </x:si>
-  <x:si>
-    <x:t>건고추</x:t>
-  </x:si>
-  <x:si>
-    <x:t>242</x:t>
-  </x:si>
-  <x:si>
-    <x:t>245</x:t>
-  </x:si>
-  <x:si>
-    <x:t>달래</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쪽파</x:t>
-  </x:si>
-  <x:si>
-    <x:t>277</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다발무</x:t>
-  </x:si>
-  <x:si>
-    <x:t>콩나물</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대파</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고사리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>270</x:t>
-  </x:si>
-  <x:si>
-    <x:t>272</x:t>
-  </x:si>
-  <x:si>
-    <x:t>265</x:t>
-  </x:si>
-  <x:si>
-    <x:t>취나물</x:t>
-  </x:si>
-  <x:si>
-    <x:t>275</x:t>
-  </x:si>
-  <x:si>
-    <x:t>266</x:t>
-  </x:si>
-  <x:si>
-    <x:t>422</x:t>
-  </x:si>
-  <x:si>
-    <x:t>267</x:t>
-  </x:si>
-  <x:si>
-    <x:t>279</x:t>
-  </x:si>
-  <x:si>
-    <x:t>274</x:t>
-  </x:si>
-  <x:si>
-    <x:t>269</x:t>
-  </x:si>
-  <x:si>
-    <x:t>264</x:t>
-  </x:si>
-  <x:si>
-    <x:t>276</x:t>
-  </x:si>
-  <x:si>
-    <x:t>278</x:t>
-  </x:si>
-  <x:si>
-    <x:t>케일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>청경채</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쑥</x:t>
-  </x:si>
-  <x:si>
-    <x:t>273</x:t>
-  </x:si>
-  <x:si>
-    <x:t>268</x:t>
-  </x:si>
-  <x:si>
-    <x:t>280</x:t>
-  </x:si>
-  <x:si>
-    <x:t>두릅</x:t>
-  </x:si>
-  <x:si>
-    <x:t>271</x:t>
-  </x:si>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <x:si>
     <x:t>콩</x:t>
   </x:si>
@@ -357,27 +87,9 @@
     <x:t>율무</x:t>
   </x:si>
   <x:si>
-    <x:t>200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>211</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배추</x:t>
-  </x:si>
-  <x:si>
-    <x:t>212</x:t>
-  </x:si>
-  <x:si>
     <x:t>귀리</x:t>
   </x:si>
   <x:si>
-    <x:t>양배추</x:t>
-  </x:si>
-  <x:si>
-    <x:t>213</x:t>
-  </x:si>
-  <x:si>
     <x:t>녹두</x:t>
   </x:si>
   <x:si>
@@ -399,52 +111,10 @@
     <x:t>162</x:t>
   </x:si>
   <x:si>
-    <x:t>붉은고추</x:t>
-  </x:si>
-  <x:si>
-    <x:t>겨울 배추</x:t>
-  </x:si>
-  <x:si>
-    <x:t>얼갈이배추</x:t>
-  </x:si>
-  <x:si>
-    <x:t>깐마늘(국산)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>브로콜리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>청양고추</x:t>
-  </x:si>
-  <x:si>
     <x:t>품목코드</x:t>
   </x:si>
   <x:si>
-    <x:t>깐마늘(수입)</x:t>
-  </x:si>
-  <x:si>
     <x:t>부류코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>절임배추</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쥬키니호박</x:t>
-  </x:si>
-  <x:si>
-    <x:t>파프리카</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알배기배추</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고춧가루</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로메인 상추</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방울토마토</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1209,780 +879,450 @@
   <x:dimension ref="A1:C131"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="F6" activeCellId="0" sqref="F6:F6"/>
+      <x:selection activeCell="F13" activeCellId="0" sqref="F13:F13"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="2" t="s">
-        <x:v>101</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>104</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>99</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="2" t="s">
-        <x:v>101</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>97</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>93</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="2" t="s">
-        <x:v>101</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>96</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
-        <x:v>95</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="2" t="s">
-        <x:v>101</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>100</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>102</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="2" t="s">
-        <x:v>101</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>98</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="2" t="s">
-        <x:v>101</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>103</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>91</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="2" t="s">
-        <x:v>101</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>92</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>119</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="2" t="s">
-        <x:v>101</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>120</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>108</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="2" t="s">
-        <x:v>101</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>121</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>106</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
       <x:c r="A11" s="2" t="s">
-        <x:v>101</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>124</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
       <x:c r="A12" s="2" t="s">
-        <x:v>101</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>105</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>116</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
       <x:c r="A13" s="2" t="s">
-        <x:v>101</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>125</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>109</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
       <x:c r="A14" s="2" t="s">
-        <x:v>101</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>107</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>110</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
       <x:c r="A15" s="2" t="s">
-        <x:v>101</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>123</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>111</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
-      <x:c r="A16" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B16" s="2" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="C16" s="2" t="s">
-        <x:v>114</x:v>
-      </x:c>
+      <x:c r="A16" s="2"/>
+      <x:c r="B16" s="2"/>
+      <x:c r="C16" s="2"/>
     </x:row>
     <x:row r="17" spans="1:3">
-      <x:c r="A17" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B17" s="2" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="C17" s="2" t="s">
-        <x:v>117</x:v>
-      </x:c>
+      <x:c r="A17" s="2"/>
+      <x:c r="B17" s="2"/>
+      <x:c r="C17" s="2"/>
     </x:row>
     <x:row r="18" spans="1:3">
-      <x:c r="A18" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B18" s="2" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="C18" s="2" t="s">
-        <x:v>21</x:v>
-      </x:c>
+      <x:c r="A18" s="2"/>
+      <x:c r="B18" s="2"/>
+      <x:c r="C18" s="2"/>
     </x:row>
     <x:row r="19" spans="1:3">
-      <x:c r="A19" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B19" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C19" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
+      <x:c r="A19" s="2"/>
+      <x:c r="B19" s="2"/>
+      <x:c r="C19" s="2"/>
     </x:row>
     <x:row r="20" spans="1:3">
-      <x:c r="A20" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B20" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C20" s="2" t="s">
-        <x:v>128</x:v>
-      </x:c>
+      <x:c r="A20" s="2"/>
+      <x:c r="B20" s="2"/>
+      <x:c r="C20" s="2"/>
     </x:row>
     <x:row r="21" spans="1:3">
-      <x:c r="A21" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B21" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C21" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
+      <x:c r="A21" s="2"/>
+      <x:c r="B21" s="2"/>
+      <x:c r="C21" s="2"/>
     </x:row>
     <x:row r="22" spans="1:3">
-      <x:c r="A22" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B22" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C22" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
+      <x:c r="A22" s="2"/>
+      <x:c r="B22" s="2"/>
+      <x:c r="C22" s="2"/>
     </x:row>
     <x:row r="23" spans="1:3">
-      <x:c r="A23" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B23" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C23" s="2" t="s">
-        <x:v>6</x:v>
-      </x:c>
+      <x:c r="A23" s="2"/>
+      <x:c r="B23" s="2"/>
+      <x:c r="C23" s="2"/>
     </x:row>
     <x:row r="24" spans="1:3">
-      <x:c r="A24" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B24" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C24" s="2" t="s">
-        <x:v>28</x:v>
-      </x:c>
+      <x:c r="A24" s="2"/>
+      <x:c r="B24" s="2"/>
+      <x:c r="C24" s="2"/>
     </x:row>
     <x:row r="25" spans="1:3">
-      <x:c r="A25" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B25" s="2" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C25" s="2" t="s">
-        <x:v>25</x:v>
-      </x:c>
+      <x:c r="A25" s="2"/>
+      <x:c r="B25" s="2"/>
+      <x:c r="C25" s="2"/>
     </x:row>
     <x:row r="26" spans="1:3">
-      <x:c r="A26" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B26" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C26" s="2" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="A26" s="2"/>
+      <x:c r="B26" s="2"/>
+      <x:c r="C26" s="2"/>
     </x:row>
     <x:row r="27" spans="1:3">
-      <x:c r="A27" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B27" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C27" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
+      <x:c r="A27" s="2"/>
+      <x:c r="B27" s="2"/>
+      <x:c r="C27" s="2"/>
     </x:row>
     <x:row r="28" spans="1:3">
-      <x:c r="A28" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B28" s="2" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C28" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
+      <x:c r="A28" s="2"/>
+      <x:c r="B28" s="2"/>
+      <x:c r="C28" s="2"/>
     </x:row>
     <x:row r="29" spans="1:3">
-      <x:c r="A29" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B29" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C29" s="2" t="s">
-        <x:v>17</x:v>
-      </x:c>
+      <x:c r="A29" s="2"/>
+      <x:c r="B29" s="2"/>
+      <x:c r="C29" s="2"/>
     </x:row>
     <x:row r="30" spans="1:3">
-      <x:c r="A30" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B30" s="2" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C30" s="2" t="s">
-        <x:v>8</x:v>
-      </x:c>
+      <x:c r="A30" s="2"/>
+      <x:c r="B30" s="2"/>
+      <x:c r="C30" s="2"/>
     </x:row>
     <x:row r="31" spans="1:3">
-      <x:c r="A31" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B31" s="2" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C31" s="2" t="s">
-        <x:v>26</x:v>
-      </x:c>
+      <x:c r="A31" s="2"/>
+      <x:c r="B31" s="2"/>
+      <x:c r="C31" s="2"/>
     </x:row>
     <x:row r="32" spans="1:3">
-      <x:c r="A32" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B32" s="2" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C32" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
+      <x:c r="A32" s="2"/>
+      <x:c r="B32" s="2"/>
+      <x:c r="C32" s="2"/>
     </x:row>
     <x:row r="33" spans="1:3">
-      <x:c r="A33" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B33" s="2" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C33" s="2" t="s">
-        <x:v>58</x:v>
-      </x:c>
+      <x:c r="A33" s="2"/>
+      <x:c r="B33" s="2"/>
+      <x:c r="C33" s="2"/>
     </x:row>
     <x:row r="34" spans="1:3">
-      <x:c r="A34" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B34" s="2" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="C34" s="2" t="s">
-        <x:v>51</x:v>
-      </x:c>
+      <x:c r="A34" s="2"/>
+      <x:c r="B34" s="2"/>
+      <x:c r="C34" s="2"/>
     </x:row>
     <x:row r="35" spans="1:3">
-      <x:c r="A35" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B35" s="2" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C35" s="2" t="s">
-        <x:v>126</x:v>
-      </x:c>
+      <x:c r="A35" s="2"/>
+      <x:c r="B35" s="2"/>
+      <x:c r="C35" s="2"/>
     </x:row>
     <x:row r="36" spans="1:3">
-      <x:c r="A36" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B36" s="2" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C36" s="2" t="s">
-        <x:v>31</x:v>
-      </x:c>
+      <x:c r="A36" s="2"/>
+      <x:c r="B36" s="2"/>
+      <x:c r="C36" s="2"/>
     </x:row>
     <x:row r="37" spans="1:3">
-      <x:c r="A37" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B37" s="2" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="C37" s="2" t="s">
-        <x:v>45</x:v>
-      </x:c>
+      <x:c r="A37" s="2"/>
+      <x:c r="B37" s="2"/>
+      <x:c r="C37" s="2"/>
     </x:row>
     <x:row r="38" spans="1:3">
-      <x:c r="A38" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B38" s="2" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C38" s="2" t="s">
-        <x:v>32</x:v>
-      </x:c>
+      <x:c r="A38" s="2"/>
+      <x:c r="B38" s="2"/>
+      <x:c r="C38" s="2"/>
     </x:row>
     <x:row r="39" spans="1:3">
-      <x:c r="A39" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B39" s="2" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C39" s="2" t="s">
-        <x:v>30</x:v>
-      </x:c>
+      <x:c r="A39" s="2"/>
+      <x:c r="B39" s="2"/>
+      <x:c r="C39" s="2"/>
     </x:row>
     <x:row r="40" spans="1:3">
-      <x:c r="A40" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B40" s="2" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="C40" s="2" t="s">
-        <x:v>139</x:v>
-      </x:c>
+      <x:c r="A40" s="2"/>
+      <x:c r="B40" s="2"/>
+      <x:c r="C40" s="2"/>
     </x:row>
     <x:row r="41" spans="1:3">
-      <x:c r="A41" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B41" s="2" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="C41" s="2" t="s">
-        <x:v>46</x:v>
-      </x:c>
+      <x:c r="A41" s="2"/>
+      <x:c r="B41" s="2"/>
+      <x:c r="C41" s="2"/>
     </x:row>
     <x:row r="42" spans="1:3">
-      <x:c r="A42" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B42" s="2" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="C42" s="2" t="s">
-        <x:v>56</x:v>
-      </x:c>
+      <x:c r="A42" s="2"/>
+      <x:c r="B42" s="2"/>
+      <x:c r="C42" s="2"/>
     </x:row>
     <x:row r="43" spans="1:3">
-      <x:c r="A43" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B43" s="2" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="C43" s="2" t="s">
-        <x:v>47</x:v>
-      </x:c>
+      <x:c r="A43" s="2"/>
+      <x:c r="B43" s="2"/>
+      <x:c r="C43" s="2"/>
     </x:row>
     <x:row r="44" spans="1:3">
-      <x:c r="A44" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B44" s="2" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="C44" s="2" t="s">
-        <x:v>57</x:v>
-      </x:c>
+      <x:c r="A44" s="2"/>
+      <x:c r="B44" s="2"/>
+      <x:c r="C44" s="2"/>
     </x:row>
     <x:row r="45" spans="1:3">
-      <x:c r="A45" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B45" s="2" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C45" s="2" t="s">
-        <x:v>38</x:v>
-      </x:c>
+      <x:c r="A45" s="2"/>
+      <x:c r="B45" s="2"/>
+      <x:c r="C45" s="2"/>
     </x:row>
     <x:row r="46" spans="1:3">
-      <x:c r="A46" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B46" s="2" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="C46" s="2" t="s">
-        <x:v>137</x:v>
-      </x:c>
+      <x:c r="A46" s="2"/>
+      <x:c r="B46" s="2"/>
+      <x:c r="C46" s="2"/>
     </x:row>
     <x:row r="47" spans="1:3">
-      <x:c r="A47" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B47" s="2" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C47" s="2" t="s">
-        <x:v>42</x:v>
-      </x:c>
+      <x:c r="A47" s="2"/>
+      <x:c r="B47" s="2"/>
+      <x:c r="C47" s="2"/>
     </x:row>
     <x:row r="48" spans="1:3">
-      <x:c r="A48" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B48" s="2" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="C48" s="2" t="s">
-        <x:v>129</x:v>
-      </x:c>
+      <x:c r="A48" s="2"/>
+      <x:c r="B48" s="2"/>
+      <x:c r="C48" s="2"/>
     </x:row>
     <x:row r="49" spans="1:3">
-      <x:c r="A49" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B49" s="2" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="C49" s="2" t="s">
-        <x:v>133</x:v>
-      </x:c>
+      <x:c r="A49" s="2"/>
+      <x:c r="B49" s="2"/>
+      <x:c r="C49" s="2"/>
     </x:row>
     <x:row r="50" spans="1:3">
-      <x:c r="A50" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B50" s="2" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C50" s="2" t="s">
-        <x:v>130</x:v>
-      </x:c>
+      <x:c r="A50" s="2"/>
+      <x:c r="B50" s="2"/>
+      <x:c r="C50" s="2"/>
     </x:row>
     <x:row r="51" spans="1:3">
-      <x:c r="A51" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B51" s="2" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="C51" s="2" t="s">
-        <x:v>53</x:v>
-      </x:c>
+      <x:c r="A51" s="2"/>
+      <x:c r="B51" s="2"/>
+      <x:c r="C51" s="2"/>
     </x:row>
     <x:row r="52" spans="1:3">
-      <x:c r="A52" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B52" s="2" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="C52" s="2" t="s">
-        <x:v>83</x:v>
-      </x:c>
+      <x:c r="A52" s="2"/>
+      <x:c r="B52" s="2"/>
+      <x:c r="C52" s="2"/>
     </x:row>
     <x:row r="53" spans="1:3">
-      <x:c r="A53" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B53" s="2" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="C53" s="2" t="s">
-        <x:v>82</x:v>
-      </x:c>
+      <x:c r="A53" s="2"/>
+      <x:c r="B53" s="2"/>
+      <x:c r="C53" s="2"/>
     </x:row>
     <x:row r="54" spans="1:3">
-      <x:c r="A54" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B54" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="C54" s="2" t="s">
-        <x:v>65</x:v>
-      </x:c>
+      <x:c r="A54" s="2"/>
+      <x:c r="B54" s="2"/>
+      <x:c r="C54" s="2"/>
     </x:row>
     <x:row r="55" spans="1:3">
-      <x:c r="A55" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B55" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="C55" s="2" t="s">
-        <x:v>135</x:v>
-      </x:c>
+      <x:c r="A55" s="2"/>
+      <x:c r="B55" s="2"/>
+      <x:c r="C55" s="2"/>
     </x:row>
     <x:row r="56" spans="1:3">
-      <x:c r="A56" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B56" s="2" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="C56" s="2" t="s">
-        <x:v>84</x:v>
-      </x:c>
+      <x:c r="A56" s="2"/>
+      <x:c r="B56" s="2"/>
+      <x:c r="C56" s="2"/>
     </x:row>
     <x:row r="57" spans="1:3">
-      <x:c r="A57" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B57" s="2" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="C57" s="2" t="s">
-        <x:v>61</x:v>
-      </x:c>
+      <x:c r="A57" s="2"/>
+      <x:c r="B57" s="2"/>
+      <x:c r="C57" s="2"/>
     </x:row>
     <x:row r="58" spans="1:3">
-      <x:c r="A58" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B58" s="2" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="C58" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
+      <x:c r="A58" s="2"/>
+      <x:c r="B58" s="2"/>
+      <x:c r="C58" s="2"/>
     </x:row>
     <x:row r="59" spans="1:3">
-      <x:c r="A59" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B59" s="2" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="C59" s="2" t="s">
-        <x:v>140</x:v>
-      </x:c>
+      <x:c r="A59" s="2"/>
+      <x:c r="B59" s="2"/>
+      <x:c r="C59" s="2"/>
     </x:row>
     <x:row r="60" spans="1:3">
-      <x:c r="A60" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B60" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="C60" s="2" t="s">
-        <x:v>71</x:v>
-      </x:c>
+      <x:c r="A60" s="2"/>
+      <x:c r="B60" s="2"/>
+      <x:c r="C60" s="2"/>
     </x:row>
     <x:row r="61" spans="1:3">
-      <x:c r="A61" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B61" s="2" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="C61" s="2" t="s">
-        <x:v>136</x:v>
-      </x:c>
+      <x:c r="A61" s="2"/>
+      <x:c r="B61" s="2"/>
+      <x:c r="C61" s="2"/>
     </x:row>
     <x:row r="62" spans="1:3">
-      <x:c r="A62" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B62" s="2" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="C62" s="2" t="s">
-        <x:v>131</x:v>
-      </x:c>
+      <x:c r="A62" s="2"/>
+      <x:c r="B62" s="2"/>
+      <x:c r="C62" s="2"/>
     </x:row>
     <x:row r="63" spans="1:3">
-      <x:c r="A63" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B63" s="2" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="C63" s="2" t="s">
-        <x:v>66</x:v>
-      </x:c>
+      <x:c r="A63" s="2"/>
+      <x:c r="B63" s="2"/>
+      <x:c r="C63" s="2"/>
     </x:row>
     <x:row r="64" spans="1:3">
-      <x:c r="A64" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B64" s="2" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="C64" s="2" t="s">
-        <x:v>67</x:v>
-      </x:c>
+      <x:c r="A64" s="2"/>
+      <x:c r="B64" s="2"/>
+      <x:c r="C64" s="2"/>
     </x:row>
     <x:row r="65" spans="1:3">
-      <x:c r="A65" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B65" s="2" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="C65" s="2" t="s">
-        <x:v>62</x:v>
-      </x:c>
+      <x:c r="A65" s="2"/>
+      <x:c r="B65" s="2"/>
+      <x:c r="C65" s="2"/>
     </x:row>
     <x:row r="66" spans="1:3">
-      <x:c r="A66" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B66" s="2" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="C66" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
+      <x:c r="A66" s="2"/>
+      <x:c r="B66" s="2"/>
+      <x:c r="C66" s="2"/>
     </x:row>
     <x:row r="67" spans="1:3">
-      <x:c r="A67" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B67" s="2" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="C67" s="2" t="s">
-        <x:v>127</x:v>
-      </x:c>
+      <x:c r="A67" s="2"/>
+      <x:c r="B67" s="2"/>
+      <x:c r="C67" s="2"/>
     </x:row>
     <x:row r="68" spans="1:3">
-      <x:c r="A68" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B68" s="2" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="C68" s="2" t="s">
-        <x:v>138</x:v>
-      </x:c>
+      <x:c r="A68" s="2"/>
+      <x:c r="B68" s="2"/>
+      <x:c r="C68" s="2"/>
     </x:row>
     <x:row r="69" spans="1:3">
-      <x:c r="A69" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B69" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="C69" s="2" t="s">
-        <x:v>130</x:v>
-      </x:c>
+      <x:c r="A69" s="2"/>
+      <x:c r="B69" s="2"/>
+      <x:c r="C69" s="2"/>
     </x:row>
     <x:row r="70" spans="1:3">
-      <x:c r="A70" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B70" s="2" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="C70" s="2" t="s">
-        <x:v>141</x:v>
-      </x:c>
+      <x:c r="A70" s="2"/>
+      <x:c r="B70" s="2"/>
+      <x:c r="C70" s="2"/>
     </x:row>
     <x:row r="71" spans="1:3">
       <x:c r="A71" s="2"/>

--- a/Project-cheon/resData/items.xlsx
+++ b/Project-cheon/resData/items.xlsx
@@ -19,89 +19,89 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="267">
+  <x:si>
+    <x:t>152</x:t>
+  </x:si>
+  <x:si>
+    <x:t>163</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고구마</x:t>
+  </x:si>
   <x:si>
     <x:t>콩</x:t>
   </x:si>
   <x:si>
+    <x:t>112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>114</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쌀</x:t>
+  </x:si>
+  <x:si>
     <x:t>팥</x:t>
   </x:si>
   <x:si>
+    <x:t>보리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>귀리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>찹쌀</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메밀</x:t>
+  </x:si>
+  <x:si>
+    <x:t>혼합곡</x:t>
+  </x:si>
+  <x:si>
+    <x:t>141</x:t>
+  </x:si>
+  <x:si>
+    <x:t>율무</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹두</x:t>
+  </x:si>
+  <x:si>
+    <x:t>113</x:t>
+  </x:si>
+  <x:si>
+    <x:t>144</x:t>
+  </x:si>
+  <x:si>
+    <x:t>151</x:t>
+  </x:si>
+  <x:si>
+    <x:t>161</x:t>
+  </x:si>
+  <x:si>
+    <x:t>품목명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>142</x:t>
+  </x:si>
+  <x:si>
     <x:t>143</x:t>
   </x:si>
   <x:si>
-    <x:t>찹쌀</x:t>
-  </x:si>
-  <x:si>
-    <x:t>품목명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>혼합곡</x:t>
-  </x:si>
-  <x:si>
-    <x:t>113</x:t>
-  </x:si>
-  <x:si>
-    <x:t>112</x:t>
-  </x:si>
-  <x:si>
-    <x:t>141</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쌀</x:t>
-  </x:si>
-  <x:si>
-    <x:t>114</x:t>
-  </x:si>
-  <x:si>
     <x:t>100</x:t>
   </x:si>
   <x:si>
-    <x:t>기장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>142</x:t>
-  </x:si>
-  <x:si>
-    <x:t>111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>161</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고구마</x:t>
-  </x:si>
-  <x:si>
-    <x:t>163</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메밀</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>율무</x:t>
-  </x:si>
-  <x:si>
-    <x:t>귀리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹두</x:t>
-  </x:si>
-  <x:si>
-    <x:t>144</x:t>
-  </x:si>
-  <x:si>
-    <x:t>151</x:t>
-  </x:si>
-  <x:si>
-    <x:t>152</x:t>
-  </x:si>
-  <x:si>
     <x:t>164</x:t>
   </x:si>
   <x:si>
@@ -111,10 +111,715 @@
     <x:t>162</x:t>
   </x:si>
   <x:si>
+    <x:t>224</x:t>
+  </x:si>
+  <x:si>
+    <x:t>토마토</x:t>
+  </x:si>
+  <x:si>
+    <x:t>호박</x:t>
+  </x:si>
+  <x:si>
+    <x:t>217</x:t>
+  </x:si>
+  <x:si>
+    <x:t>221</x:t>
+  </x:si>
+  <x:si>
+    <x:t>216</x:t>
+  </x:si>
+  <x:si>
+    <x:t>222</x:t>
+  </x:si>
+  <x:si>
+    <x:t>226</x:t>
+  </x:si>
+  <x:si>
+    <x:t>218</x:t>
+  </x:si>
+  <x:si>
+    <x:t>열무</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우엉</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수박</x:t>
+  </x:si>
+  <x:si>
+    <x:t>255</x:t>
+  </x:si>
+  <x:si>
+    <x:t>223</x:t>
+  </x:si>
+  <x:si>
+    <x:t>딸기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>당근</x:t>
+  </x:si>
+  <x:si>
+    <x:t>225</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생강</x:t>
+  </x:si>
+  <x:si>
+    <x:t>피마늘</x:t>
+  </x:si>
+  <x:si>
+    <x:t>갓</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상추</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연근</x:t>
+  </x:si>
+  <x:si>
+    <x:t>232</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>참외</x:t>
+  </x:si>
+  <x:si>
+    <x:t>215</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시금치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무</x:t>
+  </x:si>
+  <x:si>
+    <x:t>231</x:t>
+  </x:si>
+  <x:si>
+    <x:t>233</x:t>
+  </x:si>
+  <x:si>
+    <x:t>241</x:t>
+  </x:si>
+  <x:si>
+    <x:t>214</x:t>
+  </x:si>
+  <x:si>
+    <x:t>멜론</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부추</x:t>
+  </x:si>
+  <x:si>
+    <x:t>242</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쪽파</x:t>
+  </x:si>
+  <x:si>
+    <x:t>달래</x:t>
+  </x:si>
+  <x:si>
+    <x:t>256</x:t>
+  </x:si>
+  <x:si>
+    <x:t>257</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>262</x:t>
+  </x:si>
+  <x:si>
+    <x:t>245</x:t>
+  </x:si>
+  <x:si>
+    <x:t>277</x:t>
+  </x:si>
+  <x:si>
+    <x:t>깻잎</x:t>
+  </x:si>
+  <x:si>
+    <x:t>261</x:t>
+  </x:si>
+  <x:si>
+    <x:t>양파</x:t>
+  </x:si>
+  <x:si>
+    <x:t>양상추</x:t>
+  </x:si>
+  <x:si>
+    <x:t>253</x:t>
+  </x:si>
+  <x:si>
+    <x:t>252</x:t>
+  </x:si>
+  <x:si>
+    <x:t>244</x:t>
+  </x:si>
+  <x:si>
+    <x:t>풋고추</x:t>
+  </x:si>
+  <x:si>
+    <x:t>피망</x:t>
+  </x:si>
+  <x:si>
+    <x:t>248</x:t>
+  </x:si>
+  <x:si>
+    <x:t>247</x:t>
+  </x:si>
+  <x:si>
+    <x:t>254</x:t>
+  </x:si>
+  <x:si>
+    <x:t>243</x:t>
+  </x:si>
+  <x:si>
+    <x:t>246</x:t>
+  </x:si>
+  <x:si>
+    <x:t>251</x:t>
+  </x:si>
+  <x:si>
+    <x:t>258</x:t>
+  </x:si>
+  <x:si>
+    <x:t>259</x:t>
+  </x:si>
+  <x:si>
+    <x:t>263</x:t>
+  </x:si>
+  <x:si>
+    <x:t>파</x:t>
+  </x:si>
+  <x:si>
+    <x:t>건고추</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미나리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>269</x:t>
+  </x:si>
+  <x:si>
+    <x:t>265</x:t>
+  </x:si>
+  <x:si>
+    <x:t>274</x:t>
+  </x:si>
+  <x:si>
+    <x:t>276</x:t>
+  </x:si>
+  <x:si>
+    <x:t>케일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>청경채</x:t>
+  </x:si>
+  <x:si>
+    <x:t>280</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대파</x:t>
+  </x:si>
+  <x:si>
+    <x:t>취나물</x:t>
+  </x:si>
+  <x:si>
+    <x:t>참깨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쑥</x:t>
+  </x:si>
+  <x:si>
+    <x:t>270</x:t>
+  </x:si>
+  <x:si>
+    <x:t>272</x:t>
+  </x:si>
+  <x:si>
+    <x:t>273</x:t>
+  </x:si>
+  <x:si>
+    <x:t>두릅</x:t>
+  </x:si>
+  <x:si>
+    <x:t>271</x:t>
+  </x:si>
+  <x:si>
+    <x:t>279</x:t>
+  </x:si>
+  <x:si>
+    <x:t>321</x:t>
+  </x:si>
+  <x:si>
+    <x:t>322</x:t>
+  </x:si>
+  <x:si>
+    <x:t>264</x:t>
+  </x:si>
+  <x:si>
+    <x:t>268</x:t>
+  </x:si>
+  <x:si>
+    <x:t>땅콩</x:t>
+  </x:si>
+  <x:si>
+    <x:t>275</x:t>
+  </x:si>
+  <x:si>
+    <x:t>422</x:t>
+  </x:si>
+  <x:si>
+    <x:t>267</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다발무</x:t>
+  </x:si>
+  <x:si>
+    <x:t>278</x:t>
+  </x:si>
+  <x:si>
+    <x:t>콩나물</x:t>
+  </x:si>
+  <x:si>
+    <x:t>312</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고사리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>266</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아몬드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>313</x:t>
+  </x:si>
+  <x:si>
+    <x:t>428</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사과</x:t>
+  </x:si>
+  <x:si>
+    <x:t>415</x:t>
+  </x:si>
+  <x:si>
+    <x:t>323</x:t>
+  </x:si>
+  <x:si>
+    <x:t>317</x:t>
+  </x:si>
+  <x:si>
+    <x:t>315</x:t>
+  </x:si>
+  <x:si>
+    <x:t>419</x:t>
+  </x:si>
+  <x:si>
+    <x:t>416</x:t>
+  </x:si>
+  <x:si>
+    <x:t>참다래</x:t>
+  </x:si>
+  <x:si>
+    <x:t>314</x:t>
+  </x:si>
+  <x:si>
+    <x:t>412</x:t>
+  </x:si>
+  <x:si>
+    <x:t>호두</x:t>
+  </x:si>
+  <x:si>
+    <x:t>더덕</x:t>
+  </x:si>
+  <x:si>
+    <x:t>427</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배</x:t>
+  </x:si>
+  <x:si>
+    <x:t>복숭아</x:t>
+  </x:si>
+  <x:si>
+    <x:t>318</x:t>
+  </x:si>
+  <x:si>
+    <x:t>411</x:t>
+  </x:si>
+  <x:si>
+    <x:t>319</x:t>
+  </x:si>
+  <x:si>
+    <x:t>들깨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>414</x:t>
+  </x:si>
+  <x:si>
+    <x:t>감귤</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단감</x:t>
+  </x:si>
+  <x:si>
+    <x:t>418</x:t>
+  </x:si>
+  <x:si>
+    <x:t>413</x:t>
+  </x:si>
+  <x:si>
+    <x:t>400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>316</x:t>
+  </x:si>
+  <x:si>
+    <x:t>바나나</x:t>
+  </x:si>
+  <x:si>
+    <x:t>423</x:t>
+  </x:si>
+  <x:si>
+    <x:t>421</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레드향</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>426</x:t>
+  </x:si>
+  <x:si>
+    <x:t>437</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무화과</x:t>
+  </x:si>
+  <x:si>
+    <x:t>436</x:t>
+  </x:si>
+  <x:si>
+    <x:t>430</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자몽</x:t>
+  </x:si>
+  <x:si>
+    <x:t>431</x:t>
+  </x:si>
+  <x:si>
+    <x:t>434</x:t>
+  </x:si>
+  <x:si>
+    <x:t>435</x:t>
+  </x:si>
+  <x:si>
+    <x:t>곶감</x:t>
+  </x:si>
+  <x:si>
+    <x:t>433</x:t>
+  </x:si>
+  <x:si>
+    <x:t>망고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>432</x:t>
+  </x:si>
+  <x:si>
+    <x:t>424</x:t>
+  </x:si>
+  <x:si>
+    <x:t>600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>425</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오렌지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레몬</x:t>
+  </x:si>
+  <x:si>
+    <x:t>420</x:t>
+  </x:si>
+  <x:si>
+    <x:t>건포도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>복분자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>매실</x:t>
+  </x:si>
+  <x:si>
+    <x:t>429</x:t>
+  </x:si>
+  <x:si>
+    <x:t>건미역</x:t>
+  </x:si>
+  <x:si>
+    <x:t>굴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>654</x:t>
+  </x:si>
+  <x:si>
+    <x:t>새우젓</x:t>
+  </x:si>
+  <x:si>
+    <x:t>614</x:t>
+  </x:si>
+  <x:si>
+    <x:t>613</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고등어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>건멸치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612</x:t>
+  </x:si>
+  <x:si>
+    <x:t>611</x:t>
+  </x:si>
+  <x:si>
+    <x:t>641</x:t>
+  </x:si>
+  <x:si>
+    <x:t>644</x:t>
+  </x:si>
+  <x:si>
+    <x:t>640</x:t>
+  </x:si>
+  <x:si>
+    <x:t>653</x:t>
+  </x:si>
+  <x:si>
+    <x:t>615</x:t>
+  </x:si>
+  <x:si>
+    <x:t>638</x:t>
+  </x:si>
+  <x:si>
+    <x:t>갈치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>650</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>619</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전복</x:t>
+  </x:si>
+  <x:si>
+    <x:t>북어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>639</x:t>
+  </x:si>
+  <x:si>
+    <x:t>649</x:t>
+  </x:si>
+  <x:si>
+    <x:t>642</x:t>
+  </x:si>
+  <x:si>
+    <x:t>616</x:t>
+  </x:si>
+  <x:si>
+    <x:t>651</x:t>
+  </x:si>
+  <x:si>
+    <x:t>명태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>652</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>꽁치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가리비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>새우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>659</x:t>
+  </x:si>
+  <x:si>
+    <x:t>참조기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>656</x:t>
+  </x:si>
+  <x:si>
+    <x:t>657</x:t>
+  </x:si>
+  <x:si>
+    <x:t>658</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주꾸미</x:t>
+  </x:si>
+  <x:si>
+    <x:t>꽃게</x:t>
+  </x:si>
+  <x:si>
+    <x:t>홍합</x:t>
+  </x:si>
+  <x:si>
+    <x:t>660</x:t>
+  </x:si>
+  <x:si>
+    <x:t>655</x:t>
+  </x:si>
+  <x:si>
+    <x:t>212</x:t>
+  </x:si>
+  <x:si>
+    <x:t>200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>양배추</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배추</x:t>
+  </x:si>
+  <x:si>
+    <x:t>211</x:t>
+  </x:si>
+  <x:si>
+    <x:t>213</x:t>
+  </x:si>
+  <x:si>
     <x:t>품목코드</x:t>
   </x:si>
   <x:si>
     <x:t>부류코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로메인 상추</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방울토마토</x:t>
+  </x:si>
+  <x:si>
+    <x:t>새송이버섯</x:t>
+  </x:si>
+  <x:si>
+    <x:t>건다시마</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고춧가루</x:t>
+  </x:si>
+  <x:si>
+    <x:t>팽이버섯</x:t>
+  </x:si>
+  <x:si>
+    <x:t>건블루베리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>파프리카</x:t>
+  </x:si>
+  <x:si>
+    <x:t>굵은소금</x:t>
+  </x:si>
+  <x:si>
+    <x:t>샤인머스켓</x:t>
+  </x:si>
+  <x:si>
+    <x:t>블루베리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>느타리버섯</x:t>
+  </x:si>
+  <x:si>
+    <x:t>절임배추</x:t>
+  </x:si>
+  <x:si>
+    <x:t>파인애플</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수입조기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>표고버섯</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쥬키니호박</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알배기배추</x:t>
+  </x:si>
+  <x:si>
+    <x:t>깐마늘(수입)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>멸치액젓</x:t>
+  </x:si>
+  <x:si>
+    <x:t>물오징어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>겨울 배추</x:t>
+  </x:si>
+  <x:si>
+    <x:t>깐마늘(국산)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>브로콜리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>청양고추</x:t>
+  </x:si>
+  <x:si>
+    <x:t>얼갈이배추</x:t>
+  </x:si>
+  <x:si>
+    <x:t>붉은고추</x:t>
+  </x:si>
+  <x:si>
+    <x:t>골드키위</x:t>
+  </x:si>
+  <x:si>
+    <x:t>양송이버섯</x:t>
+  </x:si>
+  <x:si>
+    <x:t>건오징어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아보카도</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -879,28 +1584,31 @@
   <x:dimension ref="A1:C131"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="F13" activeCellId="0" sqref="F13:F13"/>
+      <x:selection activeCell="D5" activeCellId="0" sqref="D5:D5"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
+  <x:cols>
+    <x:col min="3" max="3" width="11.625" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
         <x:v>9</x:v>
@@ -908,98 +1616,98 @@
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
       <x:c r="A11" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
         <x:v>28</x:v>
@@ -1007,627 +1715,1323 @@
     </x:row>
     <x:row r="12" spans="1:3">
       <x:c r="A12" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
       <x:c r="A13" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
       <x:c r="A14" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
       <x:c r="A15" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
-      <x:c r="A16" s="2"/>
-      <x:c r="B16" s="2"/>
-      <x:c r="C16" s="2"/>
+      <x:c r="A16" s="2" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
+        <x:v>231</x:v>
+      </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
-      <x:c r="A17" s="2"/>
-      <x:c r="B17" s="2"/>
-      <x:c r="C17" s="2"/>
+      <x:c r="A17" s="2" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
+        <x:v>230</x:v>
+      </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
-      <x:c r="A18" s="2"/>
-      <x:c r="B18" s="2"/>
-      <x:c r="C18" s="2"/>
+      <x:c r="A18" s="2" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B18" s="2" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
-      <x:c r="A19" s="2"/>
-      <x:c r="B19" s="2"/>
-      <x:c r="C19" s="2"/>
+      <x:c r="A19" s="2" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B19" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
-      <x:c r="A20" s="2"/>
-      <x:c r="B20" s="2"/>
-      <x:c r="C20" s="2"/>
+      <x:c r="A20" s="2" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
+        <x:v>261</x:v>
+      </x:c>
     </x:row>
     <x:row r="21" spans="1:3">
-      <x:c r="A21" s="2"/>
-      <x:c r="B21" s="2"/>
-      <x:c r="C21" s="2"/>
+      <x:c r="A21" s="2" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
     </x:row>
     <x:row r="22" spans="1:3">
-      <x:c r="A22" s="2"/>
-      <x:c r="B22" s="2"/>
-      <x:c r="C22" s="2"/>
+      <x:c r="A22" s="2" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
     </x:row>
     <x:row r="23" spans="1:3">
-      <x:c r="A23" s="2"/>
-      <x:c r="B23" s="2"/>
-      <x:c r="C23" s="2"/>
+      <x:c r="A23" s="2" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
     </x:row>
     <x:row r="24" spans="1:3">
-      <x:c r="A24" s="2"/>
-      <x:c r="B24" s="2"/>
-      <x:c r="C24" s="2"/>
+      <x:c r="A24" s="2" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
+        <x:v>41</x:v>
+      </x:c>
     </x:row>
     <x:row r="25" spans="1:3">
-      <x:c r="A25" s="2"/>
-      <x:c r="B25" s="2"/>
-      <x:c r="C25" s="2"/>
+      <x:c r="A25" s="2" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
     </x:row>
     <x:row r="26" spans="1:3">
-      <x:c r="A26" s="2"/>
-      <x:c r="B26" s="2"/>
-      <x:c r="C26" s="2"/>
+      <x:c r="A26" s="2" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
     </x:row>
     <x:row r="27" spans="1:3">
-      <x:c r="A27" s="2"/>
-      <x:c r="B27" s="2"/>
-      <x:c r="C27" s="2"/>
+      <x:c r="A27" s="2" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
     </x:row>
     <x:row r="28" spans="1:3">
-      <x:c r="A28" s="2"/>
-      <x:c r="B28" s="2"/>
-      <x:c r="C28" s="2"/>
+      <x:c r="A28" s="2" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
     </x:row>
     <x:row r="29" spans="1:3">
-      <x:c r="A29" s="2"/>
-      <x:c r="B29" s="2"/>
-      <x:c r="C29" s="2"/>
+      <x:c r="A29" s="2" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
     </x:row>
     <x:row r="30" spans="1:3">
-      <x:c r="A30" s="2"/>
-      <x:c r="B30" s="2"/>
-      <x:c r="C30" s="2"/>
+      <x:c r="A30" s="2" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
     </x:row>
     <x:row r="31" spans="1:3">
-      <x:c r="A31" s="2"/>
-      <x:c r="B31" s="2"/>
-      <x:c r="C31" s="2"/>
+      <x:c r="A31" s="2" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
     </x:row>
     <x:row r="32" spans="1:3">
-      <x:c r="A32" s="2"/>
-      <x:c r="B32" s="2"/>
-      <x:c r="C32" s="2"/>
+      <x:c r="A32" s="2" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
     </x:row>
     <x:row r="33" spans="1:3">
-      <x:c r="A33" s="2"/>
-      <x:c r="B33" s="2"/>
-      <x:c r="C33" s="2"/>
+      <x:c r="A33" s="2" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B33" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
     </x:row>
     <x:row r="34" spans="1:3">
-      <x:c r="A34" s="2"/>
-      <x:c r="B34" s="2"/>
-      <x:c r="C34" s="2"/>
+      <x:c r="A34" s="2" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
     </x:row>
     <x:row r="35" spans="1:3">
-      <x:c r="A35" s="2"/>
-      <x:c r="B35" s="2"/>
-      <x:c r="C35" s="2"/>
+      <x:c r="A35" s="2" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>262</x:v>
+      </x:c>
     </x:row>
     <x:row r="36" spans="1:3">
-      <x:c r="A36" s="2"/>
-      <x:c r="B36" s="2"/>
-      <x:c r="C36" s="2"/>
+      <x:c r="A36" s="2" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
     </x:row>
     <x:row r="37" spans="1:3">
-      <x:c r="A37" s="2"/>
-      <x:c r="B37" s="2"/>
-      <x:c r="C37" s="2"/>
+      <x:c r="A37" s="2" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B37" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
     </x:row>
     <x:row r="38" spans="1:3">
-      <x:c r="A38" s="2"/>
-      <x:c r="B38" s="2"/>
-      <x:c r="C38" s="2"/>
+      <x:c r="A38" s="2" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B38" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
     </x:row>
     <x:row r="39" spans="1:3">
-      <x:c r="A39" s="2"/>
-      <x:c r="B39" s="2"/>
-      <x:c r="C39" s="2"/>
+      <x:c r="A39" s="2" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B39" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C39" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
     </x:row>
     <x:row r="40" spans="1:3">
-      <x:c r="A40" s="2"/>
-      <x:c r="B40" s="2"/>
-      <x:c r="C40" s="2"/>
+      <x:c r="A40" s="2" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B40" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C40" s="2" t="s">
+        <x:v>240</x:v>
+      </x:c>
     </x:row>
     <x:row r="41" spans="1:3">
-      <x:c r="A41" s="2"/>
-      <x:c r="B41" s="2"/>
-      <x:c r="C41" s="2"/>
+      <x:c r="A41" s="2" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B41" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C41" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
     </x:row>
     <x:row r="42" spans="1:3">
-      <x:c r="A42" s="2"/>
-      <x:c r="B42" s="2"/>
-      <x:c r="C42" s="2"/>
+      <x:c r="A42" s="2" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B42" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="C42" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
     </x:row>
     <x:row r="43" spans="1:3">
-      <x:c r="A43" s="2"/>
-      <x:c r="B43" s="2"/>
-      <x:c r="C43" s="2"/>
+      <x:c r="A43" s="2" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B43" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C43" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
     </x:row>
     <x:row r="44" spans="1:3">
-      <x:c r="A44" s="2"/>
-      <x:c r="B44" s="2"/>
-      <x:c r="C44" s="2"/>
+      <x:c r="A44" s="2" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B44" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="C44" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
     </x:row>
     <x:row r="45" spans="1:3">
-      <x:c r="A45" s="2"/>
-      <x:c r="B45" s="2"/>
-      <x:c r="C45" s="2"/>
+      <x:c r="A45" s="2" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B45" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C45" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
     </x:row>
     <x:row r="46" spans="1:3">
-      <x:c r="A46" s="2"/>
-      <x:c r="B46" s="2"/>
-      <x:c r="C46" s="2"/>
+      <x:c r="A46" s="2" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B46" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C46" s="2" t="s">
+        <x:v>243</x:v>
+      </x:c>
     </x:row>
     <x:row r="47" spans="1:3">
-      <x:c r="A47" s="2"/>
-      <x:c r="B47" s="2"/>
-      <x:c r="C47" s="2"/>
+      <x:c r="A47" s="2" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B47" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C47" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
     </x:row>
     <x:row r="48" spans="1:3">
-      <x:c r="A48" s="2"/>
-      <x:c r="B48" s="2"/>
-      <x:c r="C48" s="2"/>
+      <x:c r="A48" s="2" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B48" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C48" s="2" t="s">
+        <x:v>258</x:v>
+      </x:c>
     </x:row>
     <x:row r="49" spans="1:3">
-      <x:c r="A49" s="2"/>
-      <x:c r="B49" s="2"/>
-      <x:c r="C49" s="2"/>
+      <x:c r="A49" s="2" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B49" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C49" s="2" t="s">
+        <x:v>254</x:v>
+      </x:c>
     </x:row>
     <x:row r="50" spans="1:3">
-      <x:c r="A50" s="2"/>
-      <x:c r="B50" s="2"/>
-      <x:c r="C50" s="2"/>
+      <x:c r="A50" s="2" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B50" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C50" s="2" t="s">
+        <x:v>259</x:v>
+      </x:c>
     </x:row>
     <x:row r="51" spans="1:3">
-      <x:c r="A51" s="2"/>
-      <x:c r="B51" s="2"/>
-      <x:c r="C51" s="2"/>
+      <x:c r="A51" s="2" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B51" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C51" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
     </x:row>
     <x:row r="52" spans="1:3">
-      <x:c r="A52" s="2"/>
-      <x:c r="B52" s="2"/>
-      <x:c r="C52" s="2"/>
+      <x:c r="A52" s="2" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B52" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="C52" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
     </x:row>
     <x:row r="53" spans="1:3">
-      <x:c r="A53" s="2"/>
-      <x:c r="B53" s="2"/>
-      <x:c r="C53" s="2"/>
+      <x:c r="A53" s="2" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B53" s="2" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="C53" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
     </x:row>
     <x:row r="54" spans="1:3">
-      <x:c r="A54" s="2"/>
-      <x:c r="B54" s="2"/>
-      <x:c r="C54" s="2"/>
+      <x:c r="A54" s="2" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B54" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C54" s="2" t="s">
+        <x:v>122</x:v>
+      </x:c>
     </x:row>
     <x:row r="55" spans="1:3">
-      <x:c r="A55" s="2"/>
-      <x:c r="B55" s="2"/>
-      <x:c r="C55" s="2"/>
+      <x:c r="A55" s="2" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B55" s="2" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="C55" s="2" t="s">
+        <x:v>248</x:v>
+      </x:c>
     </x:row>
     <x:row r="56" spans="1:3">
-      <x:c r="A56" s="2"/>
-      <x:c r="B56" s="2"/>
-      <x:c r="C56" s="2"/>
+      <x:c r="A56" s="2" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B56" s="2" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="C56" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
     </x:row>
     <x:row r="57" spans="1:3">
-      <x:c r="A57" s="2"/>
-      <x:c r="B57" s="2"/>
-      <x:c r="C57" s="2"/>
+      <x:c r="A57" s="2" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B57" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="C57" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
     </x:row>
     <x:row r="58" spans="1:3">
-      <x:c r="A58" s="2"/>
-      <x:c r="B58" s="2"/>
-      <x:c r="C58" s="2"/>
+      <x:c r="A58" s="2" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B58" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="C58" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
     </x:row>
     <x:row r="59" spans="1:3">
-      <x:c r="A59" s="2"/>
-      <x:c r="B59" s="2"/>
-      <x:c r="C59" s="2"/>
+      <x:c r="A59" s="2" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B59" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C59" s="2" t="s">
+        <x:v>236</x:v>
+      </x:c>
     </x:row>
     <x:row r="60" spans="1:3">
-      <x:c r="A60" s="2"/>
-      <x:c r="B60" s="2"/>
-      <x:c r="C60" s="2"/>
+      <x:c r="A60" s="2" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B60" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="C60" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
     </x:row>
     <x:row r="61" spans="1:3">
-      <x:c r="A61" s="2"/>
-      <x:c r="B61" s="2"/>
-      <x:c r="C61" s="2"/>
+      <x:c r="A61" s="2" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B61" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C61" s="2" t="s">
+        <x:v>252</x:v>
+      </x:c>
     </x:row>
     <x:row r="62" spans="1:3">
-      <x:c r="A62" s="2"/>
-      <x:c r="B62" s="2"/>
-      <x:c r="C62" s="2"/>
+      <x:c r="A62" s="2" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B62" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="C62" s="2" t="s">
+        <x:v>260</x:v>
+      </x:c>
     </x:row>
     <x:row r="63" spans="1:3">
-      <x:c r="A63" s="2"/>
-      <x:c r="B63" s="2"/>
-      <x:c r="C63" s="2"/>
+      <x:c r="A63" s="2" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B63" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C63" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
     </x:row>
     <x:row r="64" spans="1:3">
-      <x:c r="A64" s="2"/>
-      <x:c r="B64" s="2"/>
-      <x:c r="C64" s="2"/>
+      <x:c r="A64" s="2" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B64" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="C64" s="2" t="s">
+        <x:v>124</x:v>
+      </x:c>
     </x:row>
     <x:row r="65" spans="1:3">
-      <x:c r="A65" s="2"/>
-      <x:c r="B65" s="2"/>
-      <x:c r="C65" s="2"/>
+      <x:c r="A65" s="2" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B65" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="C65" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
     </x:row>
     <x:row r="66" spans="1:3">
-      <x:c r="A66" s="2"/>
-      <x:c r="B66" s="2"/>
-      <x:c r="C66" s="2"/>
+      <x:c r="A66" s="2" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B66" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C66" s="2" t="s">
+        <x:v>120</x:v>
+      </x:c>
     </x:row>
     <x:row r="67" spans="1:3">
-      <x:c r="A67" s="2"/>
-      <x:c r="B67" s="2"/>
-      <x:c r="C67" s="2"/>
+      <x:c r="A67" s="2" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B67" s="2" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="C67" s="2" t="s">
+        <x:v>257</x:v>
+      </x:c>
     </x:row>
     <x:row r="68" spans="1:3">
-      <x:c r="A68" s="2"/>
-      <x:c r="B68" s="2"/>
-      <x:c r="C68" s="2"/>
+      <x:c r="A68" s="2" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B68" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C68" s="2" t="s">
+        <x:v>253</x:v>
+      </x:c>
     </x:row>
     <x:row r="69" spans="1:3">
-      <x:c r="A69" s="2"/>
-      <x:c r="B69" s="2"/>
-      <x:c r="C69" s="2"/>
+      <x:c r="A69" s="2" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B69" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C69" s="2" t="s">
+        <x:v>259</x:v>
+      </x:c>
     </x:row>
     <x:row r="70" spans="1:3">
-      <x:c r="A70" s="2"/>
-      <x:c r="B70" s="2"/>
-      <x:c r="C70" s="2"/>
+      <x:c r="A70" s="2" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B70" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="C70" s="2" t="s">
+        <x:v>237</x:v>
+      </x:c>
     </x:row>
     <x:row r="71" spans="1:3">
-      <x:c r="A71" s="2"/>
-      <x:c r="B71" s="2"/>
-      <x:c r="C71" s="2"/>
+      <x:c r="A71" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B71" s="2" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="C71" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
     </x:row>
     <x:row r="72" spans="1:3">
-      <x:c r="A72" s="2"/>
-      <x:c r="B72" s="2"/>
-      <x:c r="C72" s="2"/>
+      <x:c r="A72" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B72" s="2" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="C72" s="2" t="s">
+        <x:v>148</x:v>
+      </x:c>
     </x:row>
     <x:row r="73" spans="1:3">
-      <x:c r="A73" s="2"/>
-      <x:c r="B73" s="2"/>
-      <x:c r="C73" s="2"/>
+      <x:c r="A73" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B73" s="2" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="C73" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
     </x:row>
     <x:row r="74" spans="1:3">
-      <x:c r="A74" s="2"/>
-      <x:c r="B74" s="2"/>
-      <x:c r="C74" s="2"/>
+      <x:c r="A74" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B74" s="2" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="C74" s="2" t="s">
+        <x:v>247</x:v>
+      </x:c>
     </x:row>
     <x:row r="75" spans="1:3">
-      <x:c r="A75" s="2"/>
-      <x:c r="B75" s="2"/>
-      <x:c r="C75" s="2"/>
+      <x:c r="A75" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B75" s="2" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="C75" s="2" t="s">
+        <x:v>241</x:v>
+      </x:c>
     </x:row>
     <x:row r="76" spans="1:3">
-      <x:c r="A76" s="2"/>
-      <x:c r="B76" s="2"/>
-      <x:c r="C76" s="2"/>
+      <x:c r="A76" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B76" s="2" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="C76" s="2" t="s">
+        <x:v>238</x:v>
+      </x:c>
     </x:row>
     <x:row r="77" spans="1:3">
-      <x:c r="A77" s="2"/>
-      <x:c r="B77" s="2"/>
-      <x:c r="C77" s="2"/>
+      <x:c r="A77" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B77" s="2" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="C77" s="2" t="s">
+        <x:v>140</x:v>
+      </x:c>
     </x:row>
     <x:row r="78" spans="1:3">
-      <x:c r="A78" s="2"/>
-      <x:c r="B78" s="2"/>
-      <x:c r="C78" s="2"/>
+      <x:c r="A78" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B78" s="2" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="C78" s="2" t="s">
+        <x:v>126</x:v>
+      </x:c>
     </x:row>
     <x:row r="79" spans="1:3">
-      <x:c r="A79" s="2"/>
-      <x:c r="B79" s="2"/>
-      <x:c r="C79" s="2"/>
+      <x:c r="A79" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B79" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C79" s="2" t="s">
+        <x:v>264</x:v>
+      </x:c>
     </x:row>
     <x:row r="80" spans="1:3">
-      <x:c r="A80" s="2"/>
-      <x:c r="B80" s="2"/>
-      <x:c r="C80" s="2"/>
+      <x:c r="A80" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B80" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C80" s="2" t="s">
+        <x:v>251</x:v>
+      </x:c>
     </x:row>
     <x:row r="81" spans="1:3">
-      <x:c r="A81" s="2"/>
-      <x:c r="B81" s="2"/>
-      <x:c r="C81" s="2"/>
+      <x:c r="A81" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B81" s="2" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="C81" s="2" t="s">
+        <x:v>141</x:v>
+      </x:c>
     </x:row>
     <x:row r="82" spans="1:3">
-      <x:c r="A82" s="2"/>
-      <x:c r="B82" s="2"/>
-      <x:c r="C82" s="2"/>
+      <x:c r="A82" s="2" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="B82" s="2" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="C82" s="2" t="s">
+        <x:v>130</x:v>
+      </x:c>
     </x:row>
     <x:row r="83" spans="1:3">
-      <x:c r="A83" s="2"/>
-      <x:c r="B83" s="2"/>
-      <x:c r="C83" s="2"/>
+      <x:c r="A83" s="2" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="B83" s="2" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="C83" s="2" t="s">
+        <x:v>143</x:v>
+      </x:c>
     </x:row>
     <x:row r="84" spans="1:3">
-      <x:c r="A84" s="2"/>
-      <x:c r="B84" s="2"/>
-      <x:c r="C84" s="2"/>
+      <x:c r="A84" s="2" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="B84" s="2" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="C84" s="2" t="s">
+        <x:v>144</x:v>
+      </x:c>
     </x:row>
     <x:row r="85" spans="1:3">
-      <x:c r="A85" s="2"/>
-      <x:c r="B85" s="2"/>
-      <x:c r="C85" s="2"/>
+      <x:c r="A85" s="2" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="B85" s="2" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="C85" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
     </x:row>
     <x:row r="86" spans="1:3">
-      <x:c r="A86" s="2"/>
-      <x:c r="B86" s="2"/>
-      <x:c r="C86" s="2"/>
+      <x:c r="A86" s="2" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="B86" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="C86" s="2" t="s">
+        <x:v>150</x:v>
+      </x:c>
     </x:row>
     <x:row r="87" spans="1:3">
-      <x:c r="A87" s="2"/>
-      <x:c r="B87" s="2"/>
-      <x:c r="C87" s="2"/>
+      <x:c r="A87" s="2" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="B87" s="2" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="C87" s="2" t="s">
+        <x:v>151</x:v>
+      </x:c>
     </x:row>
     <x:row r="88" spans="1:3">
-      <x:c r="A88" s="2"/>
-      <x:c r="B88" s="2"/>
-      <x:c r="C88" s="2"/>
+      <x:c r="A88" s="2" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="B88" s="2" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="C88" s="2" t="s">
+        <x:v>156</x:v>
+      </x:c>
     </x:row>
     <x:row r="89" spans="1:3">
-      <x:c r="A89" s="2"/>
-      <x:c r="B89" s="2"/>
-      <x:c r="C89" s="2"/>
+      <x:c r="A89" s="2" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="B89" s="2" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="C89" s="2" t="s">
+        <x:v>137</x:v>
+      </x:c>
     </x:row>
     <x:row r="90" spans="1:3">
-      <x:c r="A90" s="2"/>
-      <x:c r="B90" s="2"/>
-      <x:c r="C90" s="2"/>
+      <x:c r="A90" s="2" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="B90" s="2" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="C90" s="2" t="s">
+        <x:v>249</x:v>
+      </x:c>
     </x:row>
     <x:row r="91" spans="1:3">
-      <x:c r="A91" s="2"/>
-      <x:c r="B91" s="2"/>
-      <x:c r="C91" s="2"/>
+      <x:c r="A91" s="2" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="B91" s="2" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="C91" s="2" t="s">
+        <x:v>177</x:v>
+      </x:c>
     </x:row>
     <x:row r="92" spans="1:3">
-      <x:c r="A92" s="2"/>
-      <x:c r="B92" s="2"/>
-      <x:c r="C92" s="2"/>
+      <x:c r="A92" s="2" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="B92" s="2" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="C92" s="2" t="s">
+        <x:v>166</x:v>
+      </x:c>
     </x:row>
     <x:row r="93" spans="1:3">
-      <x:c r="A93" s="2"/>
-      <x:c r="B93" s="2"/>
-      <x:c r="C93" s="2"/>
+      <x:c r="A93" s="2" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="B93" s="2" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="C93" s="2" t="s">
+        <x:v>178</x:v>
+      </x:c>
     </x:row>
     <x:row r="94" spans="1:3">
-      <x:c r="A94" s="2"/>
-      <x:c r="B94" s="2"/>
-      <x:c r="C94" s="2"/>
+      <x:c r="A94" s="2" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="B94" s="2" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="C94" s="2" t="s">
+        <x:v>160</x:v>
+      </x:c>
     </x:row>
     <x:row r="95" spans="1:3">
-      <x:c r="A95" s="2"/>
-      <x:c r="B95" s="2"/>
-      <x:c r="C95" s="2"/>
+      <x:c r="A95" s="2" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="B95" s="2" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="C95" s="2" t="s">
+        <x:v>180</x:v>
+      </x:c>
     </x:row>
     <x:row r="96" spans="1:3">
-      <x:c r="A96" s="2"/>
-      <x:c r="B96" s="2"/>
-      <x:c r="C96" s="2"/>
+      <x:c r="A96" s="2" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="B96" s="2" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="C96" s="2" t="s">
+        <x:v>242</x:v>
+      </x:c>
     </x:row>
     <x:row r="97" spans="1:3">
-      <x:c r="A97" s="2"/>
-      <x:c r="B97" s="2"/>
-      <x:c r="C97" s="2"/>
+      <x:c r="A97" s="2" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="B97" s="2" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="C97" s="2" t="s">
+        <x:v>172</x:v>
+      </x:c>
     </x:row>
     <x:row r="98" spans="1:3">
-      <x:c r="A98" s="2"/>
-      <x:c r="B98" s="2"/>
-      <x:c r="C98" s="2"/>
+      <x:c r="A98" s="2" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="B98" s="2" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="C98" s="2" t="s">
+        <x:v>246</x:v>
+      </x:c>
     </x:row>
     <x:row r="99" spans="1:3">
-      <x:c r="A99" s="2"/>
-      <x:c r="B99" s="2"/>
-      <x:c r="C99" s="2"/>
+      <x:c r="A99" s="2" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="B99" s="2" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="C99" s="2" t="s">
+        <x:v>266</x:v>
+      </x:c>
     </x:row>
     <x:row r="100" spans="1:3">
-      <x:c r="A100" s="2"/>
-      <x:c r="B100" s="2"/>
-      <x:c r="C100" s="2"/>
+      <x:c r="A100" s="2" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="B100" s="2" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="C100" s="2" t="s">
+        <x:v>159</x:v>
+      </x:c>
     </x:row>
     <x:row r="101" spans="1:3">
-      <x:c r="A101" s="2"/>
-      <x:c r="B101" s="2"/>
-      <x:c r="C101" s="2"/>
+      <x:c r="A101" s="2" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="B101" s="2" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="C101" s="2" t="s">
+        <x:v>182</x:v>
+      </x:c>
     </x:row>
     <x:row r="102" spans="1:3">
-      <x:c r="A102" s="2"/>
-      <x:c r="B102" s="2"/>
-      <x:c r="C102" s="2"/>
+      <x:c r="A102" s="2" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="B102" s="2" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="C102" s="2" t="s">
+        <x:v>163</x:v>
+      </x:c>
     </x:row>
     <x:row r="103" spans="1:3">
-      <x:c r="A103" s="2"/>
-      <x:c r="B103" s="2"/>
-      <x:c r="C103" s="2"/>
+      <x:c r="A103" s="2" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="B103" s="2" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="C103" s="2" t="s">
+        <x:v>181</x:v>
+      </x:c>
     </x:row>
     <x:row r="104" spans="1:3">
-      <x:c r="A104" s="2"/>
-      <x:c r="B104" s="2"/>
-      <x:c r="C104" s="2"/>
+      <x:c r="A104" s="2" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="B104" s="2" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="C104" s="2" t="s">
+        <x:v>245</x:v>
+      </x:c>
     </x:row>
     <x:row r="105" spans="1:3">
-      <x:c r="A105" s="2"/>
-      <x:c r="B105" s="2"/>
-      <x:c r="C105" s="2"/>
+      <x:c r="A105" s="2" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="B105" s="2" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="C105" s="2" t="s">
+        <x:v>170</x:v>
+      </x:c>
     </x:row>
     <x:row r="106" spans="1:3">
-      <x:c r="A106" s="2"/>
-      <x:c r="B106" s="2"/>
-      <x:c r="C106" s="2"/>
+      <x:c r="A106" s="2" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="B106" s="2" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="C106" s="2" t="s">
+        <x:v>263</x:v>
+      </x:c>
     </x:row>
     <x:row r="107" spans="1:3">
-      <x:c r="A107" s="2"/>
-      <x:c r="B107" s="2"/>
-      <x:c r="C107" s="2"/>
+      <x:c r="A107" s="2" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="B107" s="2" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="C107" s="2" t="s">
+        <x:v>190</x:v>
+      </x:c>
     </x:row>
     <x:row r="108" spans="1:3">
-      <x:c r="A108" s="2"/>
-      <x:c r="B108" s="2"/>
-      <x:c r="C108" s="2"/>
+      <x:c r="A108" s="2" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="B108" s="2" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="C108" s="2" t="s">
+        <x:v>214</x:v>
+      </x:c>
     </x:row>
     <x:row r="109" spans="1:3">
-      <x:c r="A109" s="2"/>
-      <x:c r="B109" s="2"/>
-      <x:c r="C109" s="2"/>
+      <x:c r="A109" s="2" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="B109" s="2" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="C109" s="2" t="s">
+        <x:v>200</x:v>
+      </x:c>
     </x:row>
     <x:row r="110" spans="1:3">
-      <x:c r="A110" s="2"/>
-      <x:c r="B110" s="2"/>
-      <x:c r="C110" s="2"/>
+      <x:c r="A110" s="2" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="B110" s="2" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="C110" s="2" t="s">
+        <x:v>202</x:v>
+      </x:c>
     </x:row>
     <x:row r="111" spans="1:3">
-      <x:c r="A111" s="2"/>
-      <x:c r="B111" s="2"/>
-      <x:c r="C111" s="2"/>
+      <x:c r="A111" s="2" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="B111" s="2" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="C111" s="2" t="s">
+        <x:v>211</x:v>
+      </x:c>
     </x:row>
     <x:row r="112" spans="1:3">
-      <x:c r="A112" s="2"/>
-      <x:c r="B112" s="2"/>
-      <x:c r="C112" s="2"/>
+      <x:c r="A112" s="2" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="B112" s="2" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="C112" s="2" t="s">
+        <x:v>213</x:v>
+      </x:c>
     </x:row>
     <x:row r="113" spans="1:3">
-      <x:c r="A113" s="2"/>
-      <x:c r="B113" s="2"/>
-      <x:c r="C113" s="2"/>
+      <x:c r="A113" s="2" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="B113" s="2" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="C113" s="2" t="s">
+        <x:v>256</x:v>
+      </x:c>
     </x:row>
     <x:row r="114" spans="1:3">
-      <x:c r="A114" s="2"/>
-      <x:c r="B114" s="2"/>
-      <x:c r="C114" s="2"/>
+      <x:c r="A114" s="2" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="B114" s="2" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="C114" s="2" t="s">
+        <x:v>191</x:v>
+      </x:c>
     </x:row>
     <x:row r="115" spans="1:3">
-      <x:c r="A115" s="2"/>
-      <x:c r="B115" s="2"/>
-      <x:c r="C115" s="2"/>
+      <x:c r="A115" s="2" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="B115" s="2" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="C115" s="2" t="s">
+        <x:v>205</x:v>
+      </x:c>
     </x:row>
     <x:row r="116" spans="1:3">
-      <x:c r="A116" s="2"/>
-      <x:c r="B116" s="2"/>
-      <x:c r="C116" s="2"/>
+      <x:c r="A116" s="2" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="B116" s="2" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="C116" s="2" t="s">
+        <x:v>265</x:v>
+      </x:c>
     </x:row>
     <x:row r="117" spans="1:3">
-      <x:c r="A117" s="2"/>
-      <x:c r="B117" s="2"/>
-      <x:c r="C117" s="2"/>
+      <x:c r="A117" s="2" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="B117" s="2" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="C117" s="2" t="s">
+        <x:v>215</x:v>
+      </x:c>
     </x:row>
     <x:row r="118" spans="1:3">
-      <x:c r="A118" s="2"/>
-      <x:c r="B118" s="2"/>
-      <x:c r="C118" s="2"/>
+      <x:c r="A118" s="2" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="B118" s="2" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="C118" s="2" t="s">
+        <x:v>184</x:v>
+      </x:c>
     </x:row>
     <x:row r="119" spans="1:3">
-      <x:c r="A119" s="2"/>
-      <x:c r="B119" s="2"/>
-      <x:c r="C119" s="2"/>
+      <x:c r="A119" s="2" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="B119" s="2" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="C119" s="2" t="s">
+        <x:v>185</x:v>
+      </x:c>
     </x:row>
     <x:row r="120" spans="1:3">
-      <x:c r="A120" s="2"/>
-      <x:c r="B120" s="2"/>
-      <x:c r="C120" s="2"/>
+      <x:c r="A120" s="2" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="B120" s="2" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="C120" s="2" t="s">
+        <x:v>250</x:v>
+      </x:c>
     </x:row>
     <x:row r="121" spans="1:3">
-      <x:c r="A121" s="2"/>
-      <x:c r="B121" s="2"/>
-      <x:c r="C121" s="2"/>
+      <x:c r="A121" s="2" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="B121" s="2" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="C121" s="2" t="s">
+        <x:v>187</x:v>
+      </x:c>
     </x:row>
     <x:row r="122" spans="1:3">
-      <x:c r="A122" s="2"/>
-      <x:c r="B122" s="2"/>
-      <x:c r="C122" s="2"/>
+      <x:c r="A122" s="2" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="B122" s="2" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="C122" s="2" t="s">
+        <x:v>255</x:v>
+      </x:c>
     </x:row>
     <x:row r="123" spans="1:3">
-      <x:c r="A123" s="2"/>
-      <x:c r="B123" s="2"/>
-      <x:c r="C123" s="2"/>
+      <x:c r="A123" s="2" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="B123" s="2" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="C123" s="2" t="s">
+        <x:v>244</x:v>
+      </x:c>
     </x:row>
     <x:row r="124" spans="1:3">
-      <x:c r="A124" s="2"/>
-      <x:c r="B124" s="2"/>
-      <x:c r="C124" s="2"/>
+      <x:c r="A124" s="2" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="B124" s="2" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="C124" s="2" t="s">
+        <x:v>204</x:v>
+      </x:c>
     </x:row>
     <x:row r="125" spans="1:3">
-      <x:c r="A125" s="2"/>
-      <x:c r="B125" s="2"/>
-      <x:c r="C125" s="2"/>
+      <x:c r="A125" s="2" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="B125" s="2" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="C125" s="2" t="s">
+        <x:v>217</x:v>
+      </x:c>
     </x:row>
     <x:row r="126" spans="1:3">
-      <x:c r="A126" s="2"/>
-      <x:c r="B126" s="2"/>
-      <x:c r="C126" s="2"/>
+      <x:c r="A126" s="2" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="B126" s="2" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="C126" s="2" t="s">
+        <x:v>223</x:v>
+      </x:c>
     </x:row>
     <x:row r="127" spans="1:3">
-      <x:c r="A127" s="2"/>
-      <x:c r="B127" s="2"/>
-      <x:c r="C127" s="2"/>
+      <x:c r="A127" s="2" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="B127" s="2" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="C127" s="2" t="s">
+        <x:v>224</x:v>
+      </x:c>
     </x:row>
     <x:row r="128" spans="1:3">
-      <x:c r="A128" s="2"/>
-      <x:c r="B128" s="2"/>
-      <x:c r="C128" s="2"/>
+      <x:c r="A128" s="2" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="B128" s="2" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="C128" s="2" t="s">
+        <x:v>219</x:v>
+      </x:c>
     </x:row>
     <x:row r="129" spans="1:3">
-      <x:c r="A129" s="2"/>
-      <x:c r="B129" s="2"/>
-      <x:c r="C129" s="2"/>
+      <x:c r="A129" s="2" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="B129" s="2" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="C129" s="2" t="s">
+        <x:v>225</x:v>
+      </x:c>
     </x:row>
     <x:row r="130" spans="1:3">
-      <x:c r="A130" s="2"/>
-      <x:c r="B130" s="2"/>
-      <x:c r="C130" s="2"/>
+      <x:c r="A130" s="2" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="B130" s="2" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="C130" s="2" t="s">
+        <x:v>216</x:v>
+      </x:c>
     </x:row>
     <x:row r="131" spans="1:3">
-      <x:c r="A131" s="2"/>
-      <x:c r="B131" s="2"/>
-      <x:c r="C131" s="2"/>
+      <x:c r="A131" s="2" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="B131" s="2" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="C131" s="2" t="s">
+        <x:v>239</x:v>
+      </x:c>
     </x:row>
   </x:sheetData>
   <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>

--- a/Project-cheon/resData/items.xlsx
+++ b/Project-cheon/resData/items.xlsx
@@ -1583,8 +1583,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:C131"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D5" activeCellId="0" sqref="D5:D5"/>
+    <x:sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="J133" activeCellId="0" sqref="J133:J133"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
